--- a/pre/interview/gr/1/ преленд 2 интервью BURN MT капсулы GR.xlsx
+++ b/pre/interview/gr/1/ преленд 2 интервью BURN MT капсулы GR.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
   <si>
     <t>BURN</t>
   </si>
@@ -43,7 +43,18 @@
     <t>Περισσότερα</t>
   </si>
   <si>
-    <t>Ξεφορτωθείτε τα κόμπλεξ σε μερικές εβδομάδες</t>
+    <r>
+      <t xml:space="preserve">Ξεφορτωθείτε </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t xml:space="preserve">το </t>
+    </r>
+    <r>
+      <t>κόμπλεξ σε μερικές εβδομάδες</t>
+    </r>
   </si>
   <si>
     <t>Η δημοσιογράφος μας Άννα Γεωργίου, στο πλαίσιο του ρεπορτάζ της «Κάναμε την αλλαγή», πήρε συνέντευξη από την Όλγα, η οποία είπε την υπέροχη ιστορία της.</t>
@@ -76,7 +87,18 @@
     <t>συχνά προπονιόμουν στο γυμναστήριο. Με βοήθησε, αλλά όχι για πολύ. Τα πρώτα προβλήματα, ξεκίνησαν με το στρες που δεν μπορούσα να το αποφύγω. Μετά το πανεπιστήμιο, πήγα για δουλειά και έτρωγα πολύ τα βράδια. Μερικές φορές το βραδινό μου ήταν στις 8-10 μ.μ., έτρωγα και πιο αργά. Μου αρέσουν ιδιαίτερα τα γλυκά, οι τηγανητές πατάτες και το fast food. Όταν παντρεύτηκα, ζύγιζα ήδη περίπου 78 κιλά.</t>
   </si>
   <si>
-    <t>Η γέννηση ενός παιδιού ήταν</t>
+    <r>
+      <t xml:space="preserve">Η γέννηση </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t xml:space="preserve">του </t>
+    </r>
+    <r>
+      <t>παιδιού ήταν</t>
+    </r>
   </si>
   <si>
     <t>η ώθηση για την αύξηση του βάρους μου,</t>
@@ -158,7 +180,18 @@
     <t>Μεταβείτε στην επίσημη ιστοσελίδα</t>
   </si>
   <si>
-    <t>Πώς πίνατε το φάρμακο, πώς κάνατε διατροφή και πως αθλούσασταν?</t>
+    <r>
+      <t xml:space="preserve">Πώς πίνατε το </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t>συμπλήρωμα</t>
+    </r>
+    <r>
+      <t>, πώς κάνατε διατροφή και πως αθλούσασταν?</t>
+    </r>
   </si>
   <si>
     <t>Εγώ</t>
@@ -185,10 +218,32 @@
     <t>BURN MT.</t>
   </si>
   <si>
-    <t>Μπορώ ως άτομο να δώσω σκληρή μάχη με το περιττό βάρος και προτείνω αυτό το φάρμακο αν θέλετε να είστε αδύνατοι, όμορφοι και ευτυχισμένοι. Επαναλαμβάνω,</t>
-  </si>
-  <si>
-    <t>ότι είναι μονοδικό το BURN MT,</t>
+    <r>
+      <t xml:space="preserve">Μπορώ ως άτομο να δώσω σκληρή μάχη με το περιττό βάρος και προτείνω αυτό το </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t xml:space="preserve">συμπλήρωμα </t>
+    </r>
+    <r>
+      <t>αν θέλετε να είστε αδύνατοι, όμορφοι και ευτυχισμένοι. Επαναλαμβάνω,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ότι είναι </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF38761D"/>
+      </rPr>
+      <t xml:space="preserve">μοναδικό </t>
+    </r>
+    <r>
+      <t>το BURN MT,</t>
+    </r>
   </si>
   <si>
     <t>που πραγματικά κάνει δουλειά, οπότε σίγουρα δεν θα σπαταλήσετε τα χρήματά σας.</t>
@@ -206,7 +261,18 @@
     <t>Μαρία</t>
   </si>
   <si>
-    <t>Το BURN MT είναι ένα καινοτόμο και προσιτό φάρμακο. Έχασα 10 κιλά σε δύο μήνες, ενώ περιορίστηκα μόνο σε κάποια επιβλαβή προϊόντα, όπως το αλεύρι, τα γλυκά, η μαγιονέζα. Το αίσθημα της πείνας καταστέλλεται, και δεν ζαλίζεται το κεφάλι, η διάθεση είναι εξαιρετική, τόσο ανάλαφρη... Αδυνάτιζα εύκολα και χωρίς πολλές προσπάθειες.</t>
+    <r>
+      <t xml:space="preserve">Το BURN MT είναι ένα καινοτόμο και προσιτό </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t xml:space="preserve">συμπλήρωμα </t>
+    </r>
+    <r>
+      <t>. Έχασα 10 κιλά σε δύο μήνες, ενώ περιορίστηκα μόνο σε κάποια επιβλαβή προϊόντα, όπως το αλεύρι, τα γλυκά, η μαγιονέζα. Το αίσθημα της πείνας καταστέλλεται, και δεν ζαλίζεται το κεφάλι, η διάθεση είναι εξαιρετική, τόσο ανάλαφρη... Αδυνάτιζα εύκολα και χωρίς πολλές προσπάθειες.</t>
+    </r>
   </si>
   <si>
     <t>Απαντήστε</t>
@@ -224,13 +290,24 @@
     <t>Γεια σας, σας ευχαριστώ για το μήνυμά σας.</t>
   </si>
   <si>
-    <t>κλινικά δοκιμασμένο και η αποτελεσματικότητά του έχει αποδειχθεί. Κάθε οργανισμός είναι ατομικός και η διαδικασία απώλειας βάρους εξαρτάται από τους μεταβολικούς παράγοντες. Παίρνοντας το συμπλήρωμα διατροφής πρέπει να κάνετε ολοκληρωμένη θεραπεία και να μην διακόπτεται η πρόσληψή του μετά από 7 ημέρες. Θα πρέπει επίσης να ελέγχετε την ποσότητα της διατροφή σας. Εάν συνεχίσετε να καταναλώνετε μεγάλες ποσότητες τροφίμων, είναι φυσικό το αποτέλεσμα να είναι λιγότερα αισθητό. Φροντίστε να μετράτε τις θερμίδες και να απομακρύνετε το γρήγορο φαγητό από τη διατροφή σας.</t>
+    <t xml:space="preserve">BURN MT </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF6AA84F"/>
+      </rPr>
+      <t xml:space="preserve">είναι </t>
+    </r>
+    <r>
+      <t>κλινικά δοκιμασμένο και η αποτελεσματικότητά του έχει αποδειχθεί. Κάθε οργανισμός είναι ατομικός και η διαδικασία απώλειας βάρους εξαρτάται από τους μεταβολικούς παράγοντες. Παίρνοντας το συμπλήρωμα διατροφής πρέπει να κάνετε ολοκληρωμένη θεραπεία και να μην διακόπτεται η πρόσληψή του μετά από 7 ημέρες. Θα πρέπει επίσης να ελέγχετε την ποσότητα της διατροφή σας. Εάν συνεχίσετε να καταναλώνετε μεγάλες ποσότητες τροφίμων, είναι φυσικό το αποτέλεσμα να είναι λιγότερα αισθητό. Φροντίστε να μετράτε τις θερμίδες και να απομακρύνετε το γρήγορο φαγητό από τη διατροφή σας.</t>
+    </r>
   </si>
   <si>
     <t>Ξέρετε, η αλήθεια είναι ότι συνέχισα να τρώω πολύ, αν και δεν το παρατήρησα αμέσως. Έλεγχα τακτικά τη διατροφή μου και πραγματικά με βοήθησε, άρχισα μα χάνω βάρος γρηγορότερα. Σας ευχαριστώ!</t>
   </si>
   <si>
-    <t>Юлия</t>
+    <t>Γωγώ</t>
   </si>
   <si>
     <t>Θέλω να το παραγγείλω</t>
@@ -245,7 +322,15 @@
     <t>Γεια σας, σας ευχαριστώ για την ερώτησή σας.  Το</t>
   </si>
   <si>
-    <t>φάρμακο μας περιέχει</t>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t xml:space="preserve">συμπλήρωμα </t>
+    </r>
+    <r>
+      <t>μας περιέχει</t>
+    </r>
   </si>
   <si>
     <t>μόνο χρήσιμα και αποτελεσματικά συστατικά που βοηθούν στον έλεγχο του βάρους, συμβάλλουν στη διαδικασία καύσης, αναγέννησης και ανανέωσης κυττάρων. Πρώτα απ 'όλα, είναι  το Forskolin ή το labdanic diterpenoid, το οποίο εγγυάται την ταχεία καύση σωματικού λίπους και πικολινικού χρωμίου, το οποίο είναι ένα σημαντικό μεταλλικό συστατικό που ρυθμίζει τη μεταβολική ισορροπία. Το εκχύλισμα καυτερού πιπεριού Cayenne, το εκχύλισμα wasabi και η L-καρνιτίνη έχουν φυτοκτόνο, καύση λίπους, αποκαταστατικές ιδιότητες για το ανθρώπινο σώμα</t>
@@ -281,7 +366,18 @@
     <t>Δέσποινα</t>
   </si>
   <si>
-    <t>Είναι ένα καλό φάρμακο, και μαζί με το PP και με μια μέτρια φυσική δραστηριότητα, κάνει απλά θαύματα. Ένα δροσερό συναίσθημα όταν χάνετε βάρος χωρίς υπερβολικό άγχος. Έχασα 10 κιλά που τα είχα πάρει μετά τον τοκετό. Το δέρμα σφίγγτηκε, η μέση έγινε πιο αδύνατη, έσφιξαν οι γλουτοί και αδυνάτισαν τα πόδια.</t>
+    <r>
+      <t xml:space="preserve">Είναι ένα καλό </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t>συμπλήρωμα</t>
+    </r>
+    <r>
+      <t>, και μαζί με το PP και με μια μέτρια φυσική δραστηριότητα, κάνει απλά θαύματα. Ένα δροσερό συναίσθημα όταν χάνετε βάρος χωρίς υπερβολικό άγχος. Έχασα 10 κιλά που τα είχα πάρει μετά τον τοκετό. Το δέρμα σφίγγτηκε, η μέση έγινε πιο αδύνατη, έσφιξαν οι γλουτοί και αδυνάτισαν τα πόδια.</t>
+    </r>
   </si>
   <si>
     <t>Αναστασία</t>
@@ -299,7 +395,18 @@
     <t>να κάνω τη θεραπεία αδυνατίσματος</t>
   </si>
   <si>
-    <t>με την βοήθεια του φαρμάκου σας.</t>
+    <r>
+      <t xml:space="preserve">με την βοήθεια του </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF00FF00"/>
+      </rPr>
+      <t xml:space="preserve">συμπληρωματος </t>
+    </r>
+    <r>
+      <t>σας.</t>
+    </r>
   </si>
   <si>
     <t>FASHION PRO</t>
@@ -773,7 +880,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -787,7 +894,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -799,12 +905,24 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -813,12 +931,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -827,7 +951,13 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1092,7 +1222,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1147,7 +1277,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1207,7 +1337,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1252,7 +1382,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1282,12 +1412,12 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1332,12 +1462,12 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1367,7 +1497,7 @@
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1397,18 +1527,18 @@
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="1" t="s">
-        <v>35</v>
+      <c r="A71" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="2" t="s">
-        <v>68</v>
+      <c r="A72" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -1423,7 +1553,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -1432,23 +1562,23 @@
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="1" t="s">
-        <v>70</v>
+      <c r="A77" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -1463,17 +1593,17 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="4" t="s">
-        <v>75</v>
+      <c r="A84" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -1483,22 +1613,22 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
@@ -1508,12 +1638,12 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
@@ -1523,7 +1653,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
@@ -1538,7 +1668,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
@@ -1548,7 +1678,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
@@ -1558,12 +1688,12 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="2" t="s">
-        <v>87</v>
+      <c r="A103" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
@@ -1573,12 +1703,12 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
@@ -1593,7 +1723,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
@@ -1603,22 +1733,22 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="2" t="s">
-        <v>93</v>
+      <c r="A114" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
@@ -1628,57 +1758,57 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="3" t="s">
-        <v>97</v>
+      <c r="A119" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="3" t="s">
-        <v>98</v>
+      <c r="A120" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="3" t="s">
-        <v>100</v>
+      <c r="A122" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
@@ -4316,48 +4446,48 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>105</v>
+      <c r="A1" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>106</v>
+      <c r="A2" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>107</v>
+      <c r="A3" s="10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>108</v>
+      <c r="A4" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>109</v>
+      <c r="A5" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>110</v>
+      <c r="A6" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>111</v>
+      <c r="A7" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>112</v>
+      <c r="A8" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>113</v>
+      <c r="A9" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
